--- a/doc/接口规范.xlsx
+++ b/doc/接口规范.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soft\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="xxx模块接口规范" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,12 +99,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -117,12 +128,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +421,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,7 +434,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -432,41 +446,47 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -476,7 +496,7 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -485,7 +505,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">

--- a/doc/接口规范.xlsx
+++ b/doc/接口规范.xlsx
@@ -3,14 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\work2015\git\NBAAnalysis\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="3945" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="xxx模块接口规范" sheetId="1" r:id="rId1"/>
+    <sheet name="业务逻辑层接口规范" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +72,106 @@
   </si>
   <si>
     <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blservice.getPlayerAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;PlayerVO&gt; getPlayerAnalysis()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;TeamVO&gt; getTeamAnalysis()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blservice.getTeamAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerVO getPlayerAnalysis(String name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPlayerAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamVO getTeamAnalysis(String name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamVO getTeamAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有球员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回未经排序的所有球员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有球队信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回未经排序的所有球队列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入球员名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回这位球员的信息，没有找到球员返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回这支球队的信息，没有找到球队返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllPlayers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一系列球员持久化对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllTeams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一系列球队持久化对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一系列比赛持久化对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPlayerPics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一位球员的两张图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTeamPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一支球队的队徽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,21 +227,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,98 +572,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -526,4 +678,239 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>